--- a/docs/users.xlsx
+++ b/docs/users.xlsx
@@ -180,9 +180,6 @@
     <t>ChirkaRI</t>
   </si>
   <si>
-    <t>IvanovAV</t>
-  </si>
-  <si>
     <t>PolyaninAV</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>IvanovaNV@votges.rushydro.ru</t>
+  </si>
+  <si>
+    <t>IvanovAVa</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1349,10 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1365,7 @@
     <col min="16" max="16" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1411,13 +1411,13 @@
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D3" si="0">CONCATENATE(C2,"@votges.rushydro.ru")</f>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>CONCATENATE(C4,"@votges.rushydro.ru")</f>
@@ -2054,11 +2054,11 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>IvanovAV@votges.rushydro.ru</v>
+        <v>IvanovAVa@votges.rushydro.ru</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="P15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\IvanovAV','Иванов А.В.','IvanovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <v>insert into users values('CORP\IvanovAVa','Иванов А.В.','IvanovAVa@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2152,7 +2152,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2201,7 +2201,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2250,7 +2250,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2299,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2348,7 +2348,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2397,7 +2397,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2446,7 +2446,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2495,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2" t="str">
         <f t="shared" ref="D26" si="3">CONCATENATE(C26,"@votges.rushydro.ru")</f>
@@ -2642,7 +2642,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2691,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2740,7 +2740,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2789,7 +2789,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2838,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2887,7 +2887,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2936,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2985,7 +2985,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3028,13 +3028,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" ref="D35" si="4">CONCATENATE(C35,"@votges.rushydro.ru")</f>
@@ -3077,13 +3077,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2" t="str">
         <f t="shared" ref="D36" si="5">CONCATENATE(C36,"@votges.rushydro.ru")</f>
@@ -3126,13 +3126,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2" t="str">
         <f t="shared" ref="D37" si="6">CONCATENATE(C37,"@votges.rushydro.ru")</f>
@@ -3175,13 +3175,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="2" t="str">
         <f t="shared" ref="D38" si="7">CONCATENATE(C38,"@votges.rushydro.ru")</f>
@@ -3224,12 +3224,12 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -3268,12 +3268,12 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3312,12 +3312,12 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3440,10 +3440,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>

--- a/docs/users.xlsx
+++ b/docs/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>Имя</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>IvanovAVa</t>
+  </si>
+  <si>
+    <t>Автоматически</t>
+  </si>
+  <si>
+    <t>auto</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -515,6 +521,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1034,8 +1046,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:N101" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:N102" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N102"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Имя" dataDxfId="13"/>
     <tableColumn id="2" name="Домен" dataDxfId="12"/>
@@ -1346,13 +1358,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,7 +1377,7 @@
     <col min="16" max="16" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="120.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1411,164 +1423,159 @@
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D3" si="0">CONCATENATE(C2,"@votges.rushydro.ru")</f>
-        <v>gschu@votges.rushydro.ru</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15">
         <v>0</v>
       </c>
       <c r="P2" t="str">
         <f>CONCATENATE("insert into users values('",B2,"\",C2,"','",A2,"','",D2,"',",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,")")</f>
-        <v>insert into users values('CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>insert into users values('\auto','Автоматически','',0,0,0,0,0,0,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D4" si="0">CONCATENATE(C3,"@votges.rushydro.ru")</f>
+        <v>gschu@votges.rushydro.ru</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" t="str">
+        <f>CONCATENATE("insert into users values('",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,")")</f>
+        <v>insert into users values('CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ChekunovaMV@votges.rushydro.ru</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P44" si="1">CONCATENATE("insert into users values('",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,")")</f>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P45" si="1">CONCATENATE("insert into users values('",B4,"\",C4,"','",A4,"','",D4,"',",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,")")</f>
         <v>insert into users values('CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>CONCATENATE(C4,"@votges.rushydro.ru")</f>
-        <v>ByakovAG@votges.rushydro.ru</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="str">
         <f>CONCATENATE(C5,"@votges.rushydro.ru")</f>
-        <v>DeevAP@votges.rushydro.ru</v>
+        <v>ByakovAG@votges.rushydro.ru</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1602,28 +1609,28 @@
       </c>
       <c r="P5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
+        <v>insert into users values('CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" ref="D6:D34" si="2">CONCATENATE(C6,"@votges.rushydro.ru")</f>
-        <v>AlekseevVG@votges.rushydro.ru</v>
+        <f>CONCATENATE(C6,"@votges.rushydro.ru")</f>
+        <v>DeevAP@votges.rushydro.ru</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1647,1447 +1654,1447 @@
         <v>0</v>
       </c>
       <c r="N6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
+        <v>insert into users values('CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ref="D7:D35" si="2">CONCATENATE(C7,"@votges.rushydro.ru")</f>
+        <v>AlekseevVG@votges.rushydro.ru</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D8" s="2" t="str">
         <f t="shared" si="2"/>
         <v>VotintsevAN@votges.rushydro.ru</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="P7" t="str">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>BalabanovVV@votges.rushydro.ru</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="P8" t="str">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="2"/>
         <v>TsirlinSL@votges.rushydro.ru</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" t="str">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,1,1,0,1,0,0,1)</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="2"/>
         <v>AlekseevVV@votges.rushydro.ru</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" t="str">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="2"/>
         <v>LukinSV@votges.rushydro.ru</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="P11" t="str">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D13" s="2" t="str">
         <f t="shared" si="2"/>
         <v>BorisevichVI@votges.rushydro.ru</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" t="str">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D14" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SalnikovSM@votges.rushydro.ru</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" t="str">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D15" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ChirkaRI@votges.rushydro.ru</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" t="str">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>IvanovAVa@votges.rushydro.ru</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" t="str">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\IvanovAVa','Иванов А.В.','IvanovAVa@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="2"/>
         <v>PolyaninAV@votges.rushydro.ru</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" t="str">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="2"/>
         <v>RusskihAI@votges.rushydro.ru</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" t="str">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="2"/>
         <v>GunchenkoAA@votges.rushydro.ru</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" t="str">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D20" s="2" t="str">
         <f t="shared" si="2"/>
         <v>MihaylovVV@votges.rushydro.ru</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="P19" t="str">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D21" s="2" t="str">
         <f t="shared" si="2"/>
         <v>BurnyshevKN@votges.rushydro.ru</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" t="str">
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>TrefilovAV@votges.rushydro.ru</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="P21" t="str">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>KetovaLZ@votges.rushydro.ru</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" t="str">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="P23" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>FisenkoSV@votges.rushydro.ru</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0</v>
-      </c>
-      <c r="P23" t="str">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="D25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>KirienkoDM@votges.rushydro.ru</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="P24" t="str">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SentyabovAA@votges.rushydro.ru</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="P25" t="str">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" ref="D26" si="3">CONCATENATE(C26,"@votges.rushydro.ru")</f>
-        <v>SalnikovES@votges.rushydro.ru</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" ref="D27" si="3">CONCATENATE(C27,"@votges.rushydro.ru")</f>
+        <v>SalnikovES@votges.rushydro.ru</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>KocheevNN@votges.rushydro.ru</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5">
-        <v>1</v>
-      </c>
-      <c r="P27" t="str">
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="P28" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D29" s="2" t="str">
         <f t="shared" si="2"/>
         <v>LazarevAI@votges.rushydro.ru</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5">
-        <v>1</v>
-      </c>
-      <c r="P28" t="str">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
+        <v>1</v>
+      </c>
+      <c r="P29" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D30" s="2" t="str">
         <f t="shared" si="2"/>
         <v>KuznetsovAI@votges.rushydro.ru</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="P29" t="str">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="D31" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ZykovSL@votges.rushydro.ru</v>
       </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <v>1</v>
-      </c>
-      <c r="P30" t="str">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="P31" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D32" s="2" t="str">
         <f t="shared" si="2"/>
         <v>NikonovAA@votges.rushydro.ru</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>1</v>
-      </c>
-      <c r="P31" t="str">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
+        <v>1</v>
+      </c>
+      <c r="P32" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ByakovaTA@votges.rushydro.ru</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5">
-        <v>1</v>
-      </c>
-      <c r="P32" t="str">
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5">
+        <v>1</v>
+      </c>
+      <c r="P33" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="D34" s="2" t="str">
         <f t="shared" si="2"/>
         <v>ChernyshevAA@votges.rushydro.ru</v>
       </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5">
-        <v>1</v>
-      </c>
-      <c r="P33" t="str">
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <v>1</v>
+      </c>
+      <c r="P34" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="D35" s="2" t="str">
         <f t="shared" si="2"/>
         <v>SidorovVL@votges.rushydro.ru</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5">
-        <v>1</v>
-      </c>
-      <c r="P34" t="str">
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="5">
+        <v>1</v>
+      </c>
+      <c r="P35" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <f t="shared" ref="D35" si="4">CONCATENATE(C35,"@votges.rushydro.ru")</f>
-        <v>ShamsuarovRA@votges.rushydro.ru</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5">
-        <v>1</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" ref="D36" si="5">CONCATENATE(C36,"@votges.rushydro.ru")</f>
-        <v>VasilkovVS@votges.rushydro.ru</v>
+        <f t="shared" ref="D36" si="4">CONCATENATE(C36,"@votges.rushydro.ru")</f>
+        <v>ShamsuarovRA@votges.rushydro.ru</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -3121,22 +3128,22 @@
       </c>
       <c r="P36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" ref="D37" si="6">CONCATENATE(C37,"@votges.rushydro.ru")</f>
-        <v>BahinVV@votges.rushydro.ru</v>
+        <f t="shared" ref="D37" si="5">CONCATENATE(C37,"@votges.rushydro.ru")</f>
+        <v>VasilkovVS@votges.rushydro.ru</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -3170,22 +3177,22 @@
       </c>
       <c r="P37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" ref="D38" si="7">CONCATENATE(C38,"@votges.rushydro.ru")</f>
-        <v>ShupletsovKG@votges.rushydro.ru</v>
+        <f t="shared" ref="D38" si="6">CONCATENATE(C38,"@votges.rushydro.ru")</f>
+        <v>BahinVV@votges.rushydro.ru</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -3219,17 +3226,22 @@
       </c>
       <c r="P38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f t="shared" ref="D39" si="7">CONCATENATE(C39,"@votges.rushydro.ru")</f>
+        <v>ShupletsovKG@votges.rushydro.ru</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -3238,13 +3250,13 @@
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -3263,17 +3275,17 @@
       </c>
       <c r="P39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('\','Турборемонт','KurbatovVP@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
+        <v>insert into users values('CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3307,17 +3319,17 @@
       </c>
       <c r="P40" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('\','Электроремонт','ToschevikovVM@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Турборемонт','KurbatovVP@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3351,16 +3363,18 @@
       </c>
       <c r="P41" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('\','Гидроремонт','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Электроремонт','ToschevikovVM@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E42" s="2">
         <v>0</v>
       </c>
@@ -3393,12 +3407,12 @@
       </c>
       <c r="P42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('\','Шлюз','',0,1,0,0,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Гидроремонт','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3435,54 +3449,92 @@
       </c>
       <c r="P43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users values('\','Водоканал','',0,1,0,0,0,0,0,0,0,1)</v>
+        <v>insert into users values('\','Шлюз','',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <v>1</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users values('\','Водоканал','',0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5">
-        <v>1</v>
-      </c>
-      <c r="P44" t="str">
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1</v>
+      </c>
+      <c r="P45" t="str">
         <f t="shared" si="1"/>
         <v>insert into users values('\','Вега-сервис','IvanovaNV@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -3705,20 +3757,24 @@
       <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="12"/>
+      <c r="A101" s="4"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="9"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/docs/users.xlsx
+++ b/docs/users.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
   <si>
     <t>Имя</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>auto</t>
+  </si>
+  <si>
+    <t>Номер</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -527,11 +530,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1046,23 +1092,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:N102" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:N102"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Имя" dataDxfId="13"/>
-    <tableColumn id="2" name="Домен" dataDxfId="12"/>
-    <tableColumn id="3" name="Логин" dataDxfId="11"/>
-    <tableColumn id="4" name="Почта" dataDxfId="10"/>
-    <tableColumn id="5" name="Оповещать о всех заявках" dataDxfId="9"/>
-    <tableColumn id="6" name="Оповещать о согласованных с ним заявках" dataDxfId="8"/>
-    <tableColumn id="7" name="Оповещать о созданных им заявках" dataDxfId="7"/>
-    <tableColumn id="8" name="Может создавать заявки" dataDxfId="6"/>
-    <tableColumn id="9" name="Может создавать аварийные заявки" dataDxfId="5"/>
-    <tableColumn id="10" name="Может рассматривать заявки" dataDxfId="4"/>
-    <tableColumn id="11" name="Может открывать закрывать заявки" dataDxfId="3"/>
-    <tableColumn id="12" name="Может редактировать оборудование" dataDxfId="2"/>
-    <tableColumn id="13" name="Может редактировать пользователей" dataDxfId="1"/>
-    <tableColumn id="14" name="Может согласовывать заявки" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:O102" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:O102"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Имя" dataDxfId="14"/>
+    <tableColumn id="2" name="Домен" dataDxfId="13"/>
+    <tableColumn id="3" name="Логин" dataDxfId="12"/>
+    <tableColumn id="4" name="Почта" dataDxfId="11"/>
+    <tableColumn id="5" name="Оповещать о всех заявках" dataDxfId="10"/>
+    <tableColumn id="6" name="Оповещать о согласованных с ним заявках" dataDxfId="9"/>
+    <tableColumn id="7" name="Оповещать о созданных им заявках" dataDxfId="8"/>
+    <tableColumn id="8" name="Может создавать заявки" dataDxfId="7"/>
+    <tableColumn id="9" name="Может создавать аварийные заявки" dataDxfId="6"/>
+    <tableColumn id="10" name="Может рассматривать заявки" dataDxfId="5"/>
+    <tableColumn id="11" name="Может открывать закрывать заявки" dataDxfId="4"/>
+    <tableColumn id="12" name="Может редактировать оборудование" dataDxfId="3"/>
+    <tableColumn id="13" name="Может редактировать пользователей" dataDxfId="2"/>
+    <tableColumn id="14" name="Может согласовывать заявки" dataDxfId="1"/>
+    <tableColumn id="15" name="Номер" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1361,10 +1408,10 @@
   <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2:P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1424,7 @@
     <col min="16" max="16" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="120.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1419,6 +1466,9 @@
       </c>
       <c r="N1" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1460,9 +1510,12 @@
       <c r="N2" s="15">
         <v>0</v>
       </c>
+      <c r="O2" s="16">
+        <v>1</v>
+      </c>
       <c r="P2" t="str">
-        <f>CONCATENATE("insert into users values('",B2,"\",C2,"','",A2,"','",D2,"',",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,")")</f>
-        <v>insert into users values('\auto','Автоматически','',0,0,0,0,0,0,0,0,0,0)</v>
+        <f t="shared" ref="P2:P14" si="0">CONCATENATE("insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(",O2,",'",B2,"\",C2,"','",A2,"','",D2,"',",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,")")</f>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(1,'\auto','Автоматически','',0,0,0,0,0,0,0,0,0,0)</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1476,7 +1529,7 @@
         <v>92</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D4" si="0">CONCATENATE(C3,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D3:D4" si="1">CONCATENATE(C3,"@votges.rushydro.ru")</f>
         <v>gschu@votges.rushydro.ru</v>
       </c>
       <c r="E3" s="2">
@@ -1509,9 +1562,12 @@
       <c r="N3" s="2">
         <v>0</v>
       </c>
+      <c r="O3" s="14">
+        <v>2</v>
+      </c>
       <c r="P3" t="str">
-        <f>CONCATENATE("insert into users values('",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,")")</f>
-        <v>insert into users values('CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(2,'CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0)</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1525,42 +1581,45 @@
         <v>90</v>
       </c>
       <c r="D4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ChekunovaMV@votges.rushydro.ru</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="16">
+        <v>3</v>
+      </c>
+      <c r="P4" t="str">
         <f t="shared" si="0"/>
-        <v>ChekunovaMV@votges.rushydro.ru</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" ref="P4:P45" si="1">CONCATENATE("insert into users values('",B4,"\",C4,"','",A4,"','",D4,"',",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,")")</f>
-        <v>insert into users values('CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(3,'CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1607,9 +1666,12 @@
       <c r="N5" s="5">
         <v>0</v>
       </c>
+      <c r="O5" s="14">
+        <v>4</v>
+      </c>
       <c r="P5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(4,'CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1633,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1656,9 +1718,12 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
+      <c r="O6" s="16">
+        <v>5</v>
+      </c>
       <c r="P6" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(5,'CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,1,1,1,1,0,0,0,0)</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1682,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1705,9 +1770,12 @@
       <c r="N7" s="5">
         <v>1</v>
       </c>
+      <c r="O7" s="14">
+        <v>6</v>
+      </c>
       <c r="P7" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(6,'CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,1,1,1,1,0,0,0,1)</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1731,13 +1799,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1754,9 +1822,12 @@
       <c r="N8" s="5">
         <v>1</v>
       </c>
+      <c r="O8" s="16">
+        <v>7</v>
+      </c>
       <c r="P8" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,0,0,0,1,0,0,0,1)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(7,'CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,1,1,1,1,0,0,0,1)</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1803,9 +1874,12 @@
       <c r="N9" s="5">
         <v>1</v>
       </c>
+      <c r="O9" s="14">
+        <v>8</v>
+      </c>
       <c r="P9" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(8,'CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1838,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -1852,9 +1926,12 @@
       <c r="N10" s="5">
         <v>1</v>
       </c>
+      <c r="O10" s="16">
+        <v>9</v>
+      </c>
       <c r="P10" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,1,1,0,1,0,0,1)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(9,'CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,1)</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1901,9 +1978,12 @@
       <c r="N11" s="5">
         <v>0</v>
       </c>
+      <c r="O11" s="14">
+        <v>10</v>
+      </c>
       <c r="P11" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(10,'CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1950,9 +2030,12 @@
       <c r="N12" s="5">
         <v>0</v>
       </c>
+      <c r="O12" s="16">
+        <v>11</v>
+      </c>
       <c r="P12" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(11,'CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1999,9 +2082,12 @@
       <c r="N13" s="5">
         <v>0</v>
       </c>
+      <c r="O13" s="14">
+        <v>12</v>
+      </c>
       <c r="P13" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(12,'CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2048,9 +2134,12 @@
       <c r="N14" s="5">
         <v>0</v>
       </c>
+      <c r="O14" s="16">
+        <v>13</v>
+      </c>
       <c r="P14" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="0"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(13,'CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2097,9 +2186,12 @@
       <c r="N15" s="5">
         <v>0</v>
       </c>
+      <c r="O15" s="14">
+        <v>14</v>
+      </c>
       <c r="P15" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f>CONCATENATE("insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(",O15,",'",B15,"\",C15,"','",A15,"','",D15,"',",E15,",",F15,",",G15,",",H15,",",I15,",",J15,",",K15,",",L15,",",M15,",",N15,")")</f>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(14,'CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2146,9 +2238,12 @@
       <c r="N16" s="5">
         <v>0</v>
       </c>
+      <c r="O16" s="16">
+        <v>15</v>
+      </c>
       <c r="P16" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\IvanovAVa','Иванов А.В.','IvanovAVa@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" ref="P16:P45" si="3">CONCATENATE("insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(",O16,",'",B16,"\",C16,"','",A16,"','",D16,"',",E16,",",F16,",",G16,",",H16,",",I16,",",J16,",",K16,",",L16,",",M16,",",N16,")")</f>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(15,'CORP\IvanovAVa','Иванов А.В.','IvanovAVa@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2195,9 +2290,12 @@
       <c r="N17" s="5">
         <v>0</v>
       </c>
+      <c r="O17" s="14">
+        <v>16</v>
+      </c>
       <c r="P17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(16,'CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2244,9 +2342,12 @@
       <c r="N18" s="5">
         <v>0</v>
       </c>
+      <c r="O18" s="16">
+        <v>17</v>
+      </c>
       <c r="P18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(17,'CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2293,9 +2394,12 @@
       <c r="N19" s="5">
         <v>0</v>
       </c>
+      <c r="O19" s="14">
+        <v>18</v>
+      </c>
       <c r="P19" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(18,'CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2342,9 +2446,12 @@
       <c r="N20" s="5">
         <v>0</v>
       </c>
+      <c r="O20" s="16">
+        <v>19</v>
+      </c>
       <c r="P20" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(19,'CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -2391,9 +2498,12 @@
       <c r="N21" s="5">
         <v>0</v>
       </c>
+      <c r="O21" s="14">
+        <v>20</v>
+      </c>
       <c r="P21" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(20,'CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -2440,9 +2550,12 @@
       <c r="N22" s="5">
         <v>0</v>
       </c>
+      <c r="O22" s="16">
+        <v>21</v>
+      </c>
       <c r="P22" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(21,'CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2489,9 +2602,12 @@
       <c r="N23" s="5">
         <v>0</v>
       </c>
+      <c r="O23" s="14">
+        <v>22</v>
+      </c>
       <c r="P23" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(22,'CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2538,9 +2654,12 @@
       <c r="N24" s="5">
         <v>0</v>
       </c>
+      <c r="O24" s="16">
+        <v>23</v>
+      </c>
       <c r="P24" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(23,'CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2587,9 +2706,12 @@
       <c r="N25" s="5">
         <v>0</v>
       </c>
+      <c r="O25" s="14">
+        <v>24</v>
+      </c>
       <c r="P25" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(24,'CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2636,9 +2758,12 @@
       <c r="N26" s="5">
         <v>0</v>
       </c>
+      <c r="O26" s="16">
+        <v>25</v>
+      </c>
       <c r="P26" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(25,'CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2652,7 +2777,7 @@
         <v>73</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" ref="D27" si="3">CONCATENATE(C27,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D27" si="4">CONCATENATE(C27,"@votges.rushydro.ru")</f>
         <v>SalnikovES@votges.rushydro.ru</v>
       </c>
       <c r="E27" s="2">
@@ -2685,9 +2810,12 @@
       <c r="N27" s="5">
         <v>0</v>
       </c>
+      <c r="O27" s="14">
+        <v>26</v>
+      </c>
       <c r="P27" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(26,'CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2734,9 +2862,12 @@
       <c r="N28" s="5">
         <v>1</v>
       </c>
+      <c r="O28" s="16">
+        <v>27</v>
+      </c>
       <c r="P28" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(27,'CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2783,9 +2914,12 @@
       <c r="N29" s="5">
         <v>1</v>
       </c>
+      <c r="O29" s="14">
+        <v>28</v>
+      </c>
       <c r="P29" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(28,'CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -2832,9 +2966,12 @@
       <c r="N30" s="5">
         <v>1</v>
       </c>
+      <c r="O30" s="16">
+        <v>29</v>
+      </c>
       <c r="P30" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(29,'CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2881,9 +3018,12 @@
       <c r="N31" s="5">
         <v>1</v>
       </c>
+      <c r="O31" s="14">
+        <v>30</v>
+      </c>
       <c r="P31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(30,'CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -2930,9 +3070,12 @@
       <c r="N32" s="5">
         <v>1</v>
       </c>
+      <c r="O32" s="16">
+        <v>31</v>
+      </c>
       <c r="P32" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(31,'CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -2979,9 +3122,12 @@
       <c r="N33" s="5">
         <v>1</v>
       </c>
+      <c r="O33" s="14">
+        <v>32</v>
+      </c>
       <c r="P33" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(32,'CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -3028,9 +3174,12 @@
       <c r="N34" s="5">
         <v>1</v>
       </c>
+      <c r="O34" s="16">
+        <v>33</v>
+      </c>
       <c r="P34" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(33,'CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -3077,9 +3226,12 @@
       <c r="N35" s="5">
         <v>1</v>
       </c>
+      <c r="O35" s="14">
+        <v>34</v>
+      </c>
       <c r="P35" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(34,'CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -3093,7 +3245,7 @@
         <v>75</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" ref="D36" si="4">CONCATENATE(C36,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D36" si="5">CONCATENATE(C36,"@votges.rushydro.ru")</f>
         <v>ShamsuarovRA@votges.rushydro.ru</v>
       </c>
       <c r="E36" s="2">
@@ -3126,9 +3278,12 @@
       <c r="N36" s="5">
         <v>1</v>
       </c>
+      <c r="O36" s="16">
+        <v>35</v>
+      </c>
       <c r="P36" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(35,'CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -3142,7 +3297,7 @@
         <v>77</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" ref="D37" si="5">CONCATENATE(C37,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D37" si="6">CONCATENATE(C37,"@votges.rushydro.ru")</f>
         <v>VasilkovVS@votges.rushydro.ru</v>
       </c>
       <c r="E37" s="2">
@@ -3175,9 +3330,12 @@
       <c r="N37" s="5">
         <v>1</v>
       </c>
+      <c r="O37" s="14">
+        <v>36</v>
+      </c>
       <c r="P37" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(36,'CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -3191,7 +3349,7 @@
         <v>81</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" ref="D38" si="6">CONCATENATE(C38,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D38" si="7">CONCATENATE(C38,"@votges.rushydro.ru")</f>
         <v>BahinVV@votges.rushydro.ru</v>
       </c>
       <c r="E38" s="2">
@@ -3224,9 +3382,12 @@
       <c r="N38" s="5">
         <v>1</v>
       </c>
+      <c r="O38" s="16">
+        <v>37</v>
+      </c>
       <c r="P38" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(37,'CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -3240,7 +3401,7 @@
         <v>83</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" ref="D39" si="7">CONCATENATE(C39,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D39" si="8">CONCATENATE(C39,"@votges.rushydro.ru")</f>
         <v>ShupletsovKG@votges.rushydro.ru</v>
       </c>
       <c r="E39" s="2">
@@ -3273,9 +3434,12 @@
       <c r="N39" s="5">
         <v>1</v>
       </c>
+      <c r="O39" s="14">
+        <v>38</v>
+      </c>
       <c r="P39" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(38,'CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -3317,9 +3481,12 @@
       <c r="N40" s="5">
         <v>1</v>
       </c>
+      <c r="O40" s="16">
+        <v>39</v>
+      </c>
       <c r="P40" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('\','Турборемонт','KurbatovVP@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(39,'\','Турборемонт','KurbatovVP@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -3361,9 +3528,12 @@
       <c r="N41" s="5">
         <v>1</v>
       </c>
+      <c r="O41" s="14">
+        <v>40</v>
+      </c>
       <c r="P41" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('\','Электроремонт','ToschevikovVM@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(40,'\','Электроремонт','ToschevikovVM@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -3405,9 +3575,12 @@
       <c r="N42" s="5">
         <v>1</v>
       </c>
+      <c r="O42" s="16">
+        <v>41</v>
+      </c>
       <c r="P42" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('\','Гидроремонт','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(41,'\','Гидроремонт','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -3447,9 +3620,12 @@
       <c r="N43" s="5">
         <v>1</v>
       </c>
+      <c r="O43" s="14">
+        <v>42</v>
+      </c>
       <c r="P43" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('\','Шлюз','',0,1,0,0,0,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(42,'\','Шлюз','',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -3489,9 +3665,12 @@
       <c r="N44" s="5">
         <v>1</v>
       </c>
+      <c r="O44" s="16">
+        <v>43</v>
+      </c>
       <c r="P44" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('\','Водоканал','',0,1,0,0,0,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(43,'\','Водоканал','',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -3531,236 +3710,295 @@
       <c r="N45" s="5">
         <v>1</v>
       </c>
+      <c r="O45" s="14">
+        <v>44</v>
+      </c>
       <c r="P45" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users values('\','Вега-сервис','IvanovaNV@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
+        <f t="shared" si="3"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(44,'\','Вега-сервис','IvanovaNV@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="N46" s="5"/>
+      <c r="O46" s="14"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="N47" s="5"/>
+      <c r="O47" s="14"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="14"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="14"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="14"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="14"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="14"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="14"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="14"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="14"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="14"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="N60" s="5"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="14"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="N61" s="5"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="14"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="14"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="14"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="14"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="N65" s="5"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="14"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="N66" s="5"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="14"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="14"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="N68" s="5"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="14"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="N69" s="5"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="14"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="N70" s="5"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="14"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="N71" s="5"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="14"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="N72" s="5"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="14"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="N73" s="5"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="14"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="N74" s="5"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="14"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="N75" s="5"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="14"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="N76" s="5"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="14"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="N77" s="5"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="14"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="N78" s="5"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="14"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="N79" s="5"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="14"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="N80" s="5"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="14"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="N81" s="5"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="14"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="N82" s="5"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="14"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="N83" s="5"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="14"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="N84" s="5"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="14"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="N85" s="5"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="14"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="N86" s="5"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="14"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="N87" s="5"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="14"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="N88" s="5"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="14"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="N89" s="5"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="14"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="N90" s="5"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="14"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="N91" s="5"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="14"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="N92" s="5"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="14"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="N93" s="5"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="14"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="N94" s="5"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="14"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="N95" s="5"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="14"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="N96" s="5"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="14"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="N97" s="5"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="14"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="N98" s="5"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="14"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="N99" s="5"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="14"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="N100" s="5"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="14"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="N101" s="5"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="14"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -3775,6 +4013,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
       <c r="N102" s="12"/>
+      <c r="O102" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/docs/users.xlsx
+++ b/docs/users.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
   <si>
     <t>Имя</t>
   </si>
@@ -273,21 +273,6 @@
     <t>ShupletsovKG</t>
   </si>
   <si>
-    <t>Турборемонт</t>
-  </si>
-  <si>
-    <t>Электроремонт</t>
-  </si>
-  <si>
-    <t>Гидроремонт</t>
-  </si>
-  <si>
-    <t>Шлюз</t>
-  </si>
-  <si>
-    <t>Водоканал</t>
-  </si>
-  <si>
     <t>Чекунова М.В.</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>KuzminyhIB@hvkk.rushydro.ru</t>
   </si>
   <si>
-    <t>Вега-сервис</t>
-  </si>
-  <si>
     <t>IvanovaNV@votges.rushydro.ru</t>
   </si>
   <si>
@@ -325,6 +307,36 @@
   </si>
   <si>
     <t>Номер</t>
+  </si>
+  <si>
+    <t>Оповещать о всех новых заявках</t>
+  </si>
+  <si>
+    <t>Оповещать о всех событиях согласованных заявок</t>
+  </si>
+  <si>
+    <t>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values</t>
+  </si>
+  <si>
+    <t>"Турборемонт"</t>
+  </si>
+  <si>
+    <t>"Электроремонт"</t>
+  </si>
+  <si>
+    <t>"Гидроремонт"</t>
+  </si>
+  <si>
+    <t>"Шлюз"</t>
+  </si>
+  <si>
+    <t>"Водоканал"</t>
+  </si>
+  <si>
+    <t>"Вега-сервис"</t>
+  </si>
+  <si>
+    <t>IvanovAV@votges.rushydro.ru</t>
   </si>
 </sst>
 </file>
@@ -543,7 +555,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -600,6 +612,74 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1092,16 +1172,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:O102" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:O102"/>
-  <tableColumns count="15">
-    <tableColumn id="1" name="Имя" dataDxfId="14"/>
-    <tableColumn id="2" name="Домен" dataDxfId="13"/>
-    <tableColumn id="3" name="Логин" dataDxfId="12"/>
-    <tableColumn id="4" name="Почта" dataDxfId="11"/>
-    <tableColumn id="5" name="Оповещать о всех заявках" dataDxfId="10"/>
-    <tableColumn id="6" name="Оповещать о согласованных с ним заявках" dataDxfId="9"/>
-    <tableColumn id="7" name="Оповещать о созданных им заявках" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:Q102" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:Q102"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="Имя" dataDxfId="16"/>
+    <tableColumn id="2" name="Домен" dataDxfId="15"/>
+    <tableColumn id="3" name="Логин" dataDxfId="14"/>
+    <tableColumn id="4" name="Почта" dataDxfId="13"/>
+    <tableColumn id="5" name="Оповещать о всех заявках" dataDxfId="12"/>
+    <tableColumn id="6" name="Оповещать о согласованных с ним заявках" dataDxfId="11"/>
+    <tableColumn id="7" name="Оповещать о созданных им заявках" dataDxfId="10"/>
+    <tableColumn id="17" name="Оповещать о всех новых заявках" dataDxfId="9"/>
+    <tableColumn id="16" name="Оповещать о всех событиях согласованных заявок" dataDxfId="8"/>
     <tableColumn id="8" name="Может создавать заявки" dataDxfId="7"/>
     <tableColumn id="9" name="Может создавать аварийные заявки" dataDxfId="6"/>
     <tableColumn id="10" name="Может рассматривать заявки" dataDxfId="5"/>
@@ -1405,13 +1487,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2:P45"/>
+      <selection pane="bottomRight" activeCell="R5" sqref="R5:R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,11 +1502,11 @@
     <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
-    <col min="5" max="14" width="10.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="16" width="10.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1447,37 +1529,46 @@
         <v>5</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="14">
@@ -1507,29 +1598,35 @@
       <c r="M2" s="14">
         <v>0</v>
       </c>
-      <c r="N2" s="15">
-        <v>0</v>
-      </c>
-      <c r="O2" s="16">
-        <v>1</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" ref="P2:P14" si="0">CONCATENATE("insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(",O2,",'",B2,"\",C2,"','",A2,"','",D2,"',",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,")")</f>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(1,'\auto','Автоматически','',0,0,0,0,0,0,0,0,0,0)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>1</v>
+      </c>
+      <c r="R2" t="str">
+        <f>CONCATENATE($R$1,"(",Q2,",'",B2,"\",C2,"','",A2,"','",D2,"',",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,",",O2,",",P2,")")</f>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(1,'\auto','Автоматически','',0,0,0,0,0,0,0,0,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D4" si="1">CONCATENATE(C3,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D3:D4" si="0">CONCATENATE(C3,"@votges.rushydro.ru")</f>
         <v>gschu@votges.rushydro.ru</v>
       </c>
       <c r="E3" s="2">
@@ -1541,7 +1638,7 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="14">
         <v>0</v>
       </c>
       <c r="I3" s="2">
@@ -1562,67 +1659,79 @@
       <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
         <v>2</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(2,'CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R45" si="1">CONCATENATE($R$1,"(",Q3,",'",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3,",",P3,")")</f>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(2,'CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ChekunovaMV@votges.rushydro.ru</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>3</v>
+      </c>
+      <c r="R4" t="str">
         <f t="shared" si="1"/>
-        <v>ChekunovaMV@votges.rushydro.ru</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="16">
-        <v>3</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(3,'CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(3,'CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,0,1,1,1,1,1,1,1,1)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
@@ -1645,36 +1754,42 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="14">
         <v>0</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
         <v>4</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(4,'CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,1,0,0,0,0)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(4,'CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,0,0,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1697,36 +1812,42 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
-        <v>1</v>
+      <c r="H6" s="14">
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
         <v>5</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(5,'CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,1,1,1,1,0,0,0,0)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(5,'CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,1,0,0,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1749,8 +1870,8 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
+      <c r="H7" s="14">
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1759,26 +1880,32 @@
         <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="14">
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="14">
         <v>6</v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(6,'CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,1,1,1,1,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(6,'CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,1,0,1,1,1,1,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1801,8 +1928,8 @@
       <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
-        <v>1</v>
+      <c r="H8" s="14">
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -1811,26 +1938,32 @@
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="16">
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="16">
         <v>7</v>
       </c>
-      <c r="P8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(7,'CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,1,1,1,1,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(7,'CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,1,0,1,1,1,1,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1853,8 +1986,8 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
-        <v>1</v>
+      <c r="H9" s="14">
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -1871,18 +2004,24 @@
       <c r="M9" s="2">
         <v>1</v>
       </c>
-      <c r="N9" s="5">
-        <v>1</v>
-      </c>
-      <c r="O9" s="14">
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="14">
         <v>8</v>
       </c>
-      <c r="P9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(8,'CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,1,1,1,1,1,1,1)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(8,'CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,0,1,1,1,1,1,1,1,1)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1905,8 +2044,8 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2">
-        <v>1</v>
+      <c r="H10" s="14">
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -1918,23 +2057,29 @@
         <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="16">
         <v>9</v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(9,'CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,1)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(9,'CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,1)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1957,8 +2102,8 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
-        <v>1</v>
+      <c r="H11" s="14">
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -1970,23 +2115,29 @@
         <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="14">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
         <v>10</v>
       </c>
-      <c r="P11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(10,'CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(10,'CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -2009,8 +2160,8 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2">
-        <v>1</v>
+      <c r="H12" s="14">
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -2022,23 +2173,29 @@
         <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="16">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
         <v>11</v>
       </c>
-      <c r="P12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(11,'CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(11,'CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -2061,8 +2218,8 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
+      <c r="H13" s="14">
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -2074,23 +2231,29 @@
         <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
         <v>12</v>
       </c>
-      <c r="P13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(12,'CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(12,'CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2113,8 +2276,8 @@
       <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="2">
-        <v>1</v>
+      <c r="H14" s="14">
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -2126,23 +2289,29 @@
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="16">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
         <v>13</v>
       </c>
-      <c r="P14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(13,'CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(13,'CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2334,8 @@
       <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
+      <c r="H15" s="14">
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -2178,23 +2347,29 @@
         <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="14">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
         <v>14</v>
       </c>
-      <c r="P15" t="str">
-        <f>CONCATENATE("insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(",O15,",'",B15,"\",C15,"','",A15,"','",D15,"',",E15,",",F15,",",G15,",",H15,",",I15,",",J15,",",K15,",",L15,",",M15,",",N15,")")</f>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(14,'CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(14,'CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -2202,11 +2377,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>IvanovAVa@votges.rushydro.ru</v>
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -2217,8 +2391,8 @@
       <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="2">
-        <v>1</v>
+      <c r="H16" s="14">
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -2230,23 +2404,29 @@
         <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
         <v>15</v>
       </c>
-      <c r="P16" t="str">
-        <f t="shared" ref="P16:P45" si="3">CONCATENATE("insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(",O16,",'",B16,"\",C16,"','",A16,"','",D16,"',",E16,",",F16,",",G16,",",H16,",",I16,",",J16,",",K16,",",L16,",",M16,",",N16,")")</f>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(15,'CORP\IvanovAVa','Иванов А.В.','IvanovAVa@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(15,'CORP\IvanovAVa','Иванов А.В.','IvanovAV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -2269,8 +2449,8 @@
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="2">
-        <v>1</v>
+      <c r="H17" s="14">
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -2282,23 +2462,29 @@
         <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
         <v>16</v>
       </c>
-      <c r="P17" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(16,'CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(16,'CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -2321,8 +2507,8 @@
       <c r="G18" s="2">
         <v>1</v>
       </c>
-      <c r="H18" s="2">
-        <v>1</v>
+      <c r="H18" s="14">
+        <v>0</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -2334,23 +2520,29 @@
         <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="16">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
         <v>17</v>
       </c>
-      <c r="P18" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(17,'CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(17,'CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -2373,8 +2565,8 @@
       <c r="G19" s="2">
         <v>1</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
+      <c r="H19" s="14">
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2386,23 +2578,29 @@
         <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="14">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
         <v>18</v>
       </c>
-      <c r="P19" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(18,'CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(18,'CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -2425,8 +2623,8 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
+      <c r="H20" s="14">
+        <v>0</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -2438,23 +2636,29 @@
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
         <v>19</v>
       </c>
-      <c r="P20" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(19,'CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(19,'CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
@@ -2477,8 +2681,8 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
+      <c r="H21" s="14">
+        <v>0</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -2490,23 +2694,29 @@
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="14">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
         <v>20</v>
       </c>
-      <c r="P21" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(20,'CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(20,'CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -2529,8 +2739,8 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="2">
-        <v>1</v>
+      <c r="H22" s="14">
+        <v>0</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -2542,23 +2752,29 @@
         <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="16">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16">
         <v>21</v>
       </c>
-      <c r="P22" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(21,'CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(21,'CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -2581,11 +2797,11 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
+      <c r="H23" s="14">
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -2594,23 +2810,29 @@
         <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0</v>
-      </c>
-      <c r="O23" s="14">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
         <v>22</v>
       </c>
-      <c r="P23" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(22,'CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(22,'CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
@@ -2633,11 +2855,11 @@
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
+      <c r="H24" s="14">
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -2646,23 +2868,29 @@
         <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="O24" s="16">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16">
         <v>23</v>
       </c>
-      <c r="P24" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(23,'CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(23,'CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
@@ -2685,11 +2913,11 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
+      <c r="H25" s="14">
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -2698,23 +2926,29 @@
         <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="O25" s="14">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14">
         <v>24</v>
       </c>
-      <c r="P25" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(24,'CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(24,'CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -2737,11 +2971,11 @@
       <c r="G26" s="2">
         <v>1</v>
       </c>
-      <c r="H26" s="2">
-        <v>1</v>
+      <c r="H26" s="14">
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
         <v>1</v>
@@ -2750,23 +2984,29 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0</v>
-      </c>
-      <c r="O26" s="16">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
         <v>25</v>
       </c>
-      <c r="P26" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(25,'CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(25,'CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
@@ -2777,7 +3017,7 @@
         <v>73</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" ref="D27" si="4">CONCATENATE(C27,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D27" si="3">CONCATENATE(C27,"@votges.rushydro.ru")</f>
         <v>SalnikovES@votges.rushydro.ru</v>
       </c>
       <c r="E27" s="2">
@@ -2789,11 +3029,11 @@
       <c r="G27" s="2">
         <v>1</v>
       </c>
-      <c r="H27" s="2">
-        <v>1</v>
+      <c r="H27" s="14">
+        <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -2802,23 +3042,29 @@
         <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0</v>
-      </c>
-      <c r="O27" s="14">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14">
         <v>26</v>
       </c>
-      <c r="P27" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(26,'CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(26,'CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -2841,17 +3087,17 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="2">
-        <v>1</v>
+      <c r="H28" s="14">
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -2859,18 +3105,24 @@
       <c r="M28" s="2">
         <v>0</v>
       </c>
-      <c r="N28" s="5">
-        <v>1</v>
-      </c>
-      <c r="O28" s="16">
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="16">
         <v>27</v>
       </c>
-      <c r="P28" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(27,'CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(27,'CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -2893,17 +3145,17 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" s="2">
-        <v>1</v>
+      <c r="H29" s="14">
+        <v>0</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -2911,18 +3163,24 @@
       <c r="M29" s="2">
         <v>0</v>
       </c>
-      <c r="N29" s="5">
-        <v>1</v>
-      </c>
-      <c r="O29" s="14">
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="14">
         <v>28</v>
       </c>
-      <c r="P29" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(28,'CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(28,'CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -2945,17 +3203,17 @@
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
+      <c r="H30" s="14">
+        <v>0</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -2963,18 +3221,24 @@
       <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="N30" s="5">
-        <v>1</v>
-      </c>
-      <c r="O30" s="16">
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="16">
         <v>29</v>
       </c>
-      <c r="P30" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(29,'CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(29,'CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -2997,17 +3261,17 @@
       <c r="G31" s="2">
         <v>1</v>
       </c>
-      <c r="H31" s="2">
-        <v>1</v>
+      <c r="H31" s="14">
+        <v>0</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -3015,18 +3279,24 @@
       <c r="M31" s="2">
         <v>0</v>
       </c>
-      <c r="N31" s="5">
-        <v>1</v>
-      </c>
-      <c r="O31" s="14">
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="14">
         <v>30</v>
       </c>
-      <c r="P31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(30,'CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(30,'CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -3049,17 +3319,17 @@
       <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="2">
-        <v>1</v>
+      <c r="H32" s="14">
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -3067,18 +3337,24 @@
       <c r="M32" s="2">
         <v>0</v>
       </c>
-      <c r="N32" s="5">
-        <v>1</v>
-      </c>
-      <c r="O32" s="16">
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="16">
         <v>31</v>
       </c>
-      <c r="P32" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(31,'CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(31,'CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -3101,17 +3377,17 @@
       <c r="G33" s="2">
         <v>1</v>
       </c>
-      <c r="H33" s="2">
-        <v>1</v>
+      <c r="H33" s="14">
+        <v>0</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="2">
         <v>0</v>
@@ -3119,18 +3395,24 @@
       <c r="M33" s="2">
         <v>0</v>
       </c>
-      <c r="N33" s="5">
-        <v>1</v>
-      </c>
-      <c r="O33" s="14">
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="14">
         <v>32</v>
       </c>
-      <c r="P33" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(32,'CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(32,'CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -3153,17 +3435,17 @@
       <c r="G34" s="2">
         <v>1</v>
       </c>
-      <c r="H34" s="2">
-        <v>1</v>
+      <c r="H34" s="14">
+        <v>0</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
@@ -3171,18 +3453,24 @@
       <c r="M34" s="2">
         <v>0</v>
       </c>
-      <c r="N34" s="5">
-        <v>1</v>
-      </c>
-      <c r="O34" s="16">
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="16">
         <v>33</v>
       </c>
-      <c r="P34" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(33,'CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(33,'CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -3205,17 +3493,17 @@
       <c r="G35" s="2">
         <v>1</v>
       </c>
-      <c r="H35" s="2">
-        <v>1</v>
+      <c r="H35" s="14">
+        <v>0</v>
       </c>
       <c r="I35" s="2">
         <v>1</v>
       </c>
       <c r="J35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
@@ -3223,18 +3511,24 @@
       <c r="M35" s="2">
         <v>0</v>
       </c>
-      <c r="N35" s="5">
-        <v>1</v>
-      </c>
-      <c r="O35" s="14">
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="14">
         <v>34</v>
       </c>
-      <c r="P35" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(34,'CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(34,'CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>74</v>
       </c>
@@ -3245,7 +3539,7 @@
         <v>75</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" ref="D36" si="5">CONCATENATE(C36,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D36" si="4">CONCATENATE(C36,"@votges.rushydro.ru")</f>
         <v>ShamsuarovRA@votges.rushydro.ru</v>
       </c>
       <c r="E36" s="2">
@@ -3257,17 +3551,17 @@
       <c r="G36" s="2">
         <v>1</v>
       </c>
-      <c r="H36" s="2">
-        <v>1</v>
+      <c r="H36" s="14">
+        <v>0</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -3275,18 +3569,24 @@
       <c r="M36" s="2">
         <v>0</v>
       </c>
-      <c r="N36" s="5">
-        <v>1</v>
-      </c>
-      <c r="O36" s="16">
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="16">
         <v>35</v>
       </c>
-      <c r="P36" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(35,'CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(35,'CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -3297,7 +3597,7 @@
         <v>77</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" ref="D37" si="6">CONCATENATE(C37,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D37" si="5">CONCATENATE(C37,"@votges.rushydro.ru")</f>
         <v>VasilkovVS@votges.rushydro.ru</v>
       </c>
       <c r="E37" s="2">
@@ -3309,17 +3609,17 @@
       <c r="G37" s="2">
         <v>1</v>
       </c>
-      <c r="H37" s="2">
-        <v>1</v>
+      <c r="H37" s="14">
+        <v>0</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="2">
         <v>0</v>
@@ -3327,18 +3627,24 @@
       <c r="M37" s="2">
         <v>0</v>
       </c>
-      <c r="N37" s="5">
-        <v>1</v>
-      </c>
-      <c r="O37" s="14">
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="14">
         <v>36</v>
       </c>
-      <c r="P37" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(36,'CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(36,'CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>80</v>
       </c>
@@ -3349,7 +3655,7 @@
         <v>81</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" ref="D38" si="7">CONCATENATE(C38,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D38" si="6">CONCATENATE(C38,"@votges.rushydro.ru")</f>
         <v>BahinVV@votges.rushydro.ru</v>
       </c>
       <c r="E38" s="2">
@@ -3361,17 +3667,17 @@
       <c r="G38" s="2">
         <v>1</v>
       </c>
-      <c r="H38" s="2">
-        <v>1</v>
+      <c r="H38" s="14">
+        <v>0</v>
       </c>
       <c r="I38" s="2">
         <v>1</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -3379,18 +3685,24 @@
       <c r="M38" s="2">
         <v>0</v>
       </c>
-      <c r="N38" s="5">
-        <v>1</v>
-      </c>
-      <c r="O38" s="16">
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="16">
         <v>37</v>
       </c>
-      <c r="P38" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(37,'CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(37,'CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>82</v>
       </c>
@@ -3401,7 +3713,7 @@
         <v>83</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" ref="D39" si="8">CONCATENATE(C39,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D39" si="7">CONCATENATE(C39,"@votges.rushydro.ru")</f>
         <v>ShupletsovKG@votges.rushydro.ru</v>
       </c>
       <c r="E39" s="2">
@@ -3413,17 +3725,17 @@
       <c r="G39" s="2">
         <v>1</v>
       </c>
-      <c r="H39" s="2">
-        <v>1</v>
+      <c r="H39" s="14">
+        <v>0</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
@@ -3431,25 +3743,31 @@
       <c r="M39" s="2">
         <v>0</v>
       </c>
-      <c r="N39" s="5">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="14">
         <v>38</v>
       </c>
-      <c r="P39" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(38,'CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(38,'CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3460,11 +3778,11 @@
       <c r="G40" s="2">
         <v>0</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="14">
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -3478,25 +3796,31 @@
       <c r="M40" s="2">
         <v>0</v>
       </c>
-      <c r="N40" s="5">
-        <v>1</v>
-      </c>
-      <c r="O40" s="16">
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="16">
         <v>39</v>
       </c>
-      <c r="P40" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(39,'\','Турборемонт','KurbatovVP@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(39,'\','"Турборемонт"','KurbatovVP@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3507,11 +3831,11 @@
       <c r="G41" s="2">
         <v>0</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="14">
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -3525,25 +3849,31 @@
       <c r="M41" s="2">
         <v>0</v>
       </c>
-      <c r="N41" s="5">
-        <v>1</v>
-      </c>
-      <c r="O41" s="14">
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="14">
         <v>40</v>
       </c>
-      <c r="P41" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(40,'\','Электроремонт','ToschevikovVM@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(40,'\','"Электроремонт"','ToschevikovVM@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -3554,11 +3884,11 @@
       <c r="G42" s="2">
         <v>0</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="14">
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -3572,20 +3902,26 @@
       <c r="M42" s="2">
         <v>0</v>
       </c>
-      <c r="N42" s="5">
-        <v>1</v>
-      </c>
-      <c r="O42" s="16">
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="16">
         <v>41</v>
       </c>
-      <c r="P42" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(41,'\','Гидроремонт','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(41,'\','"Гидроремонт"','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3599,11 +3935,11 @@
       <c r="G43" s="2">
         <v>0</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="14">
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -3617,20 +3953,26 @@
       <c r="M43" s="2">
         <v>0</v>
       </c>
-      <c r="N43" s="5">
-        <v>1</v>
-      </c>
-      <c r="O43" s="14">
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="14">
         <v>42</v>
       </c>
-      <c r="P43" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(42,'\','Шлюз','',0,1,0,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(42,'\','"Шлюз"','',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3644,11 +3986,11 @@
       <c r="G44" s="2">
         <v>0</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="14">
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -3662,23 +4004,29 @@
       <c r="M44" s="2">
         <v>0</v>
       </c>
-      <c r="N44" s="5">
-        <v>1</v>
-      </c>
-      <c r="O44" s="16">
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="16">
         <v>43</v>
       </c>
-      <c r="P44" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(43,'\','Водоканал','',0,1,0,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(43,'\','"Водоканал"','',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -3689,11 +4037,11 @@
       <c r="G45" s="2">
         <v>0</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="14">
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -3707,298 +4055,304 @@
       <c r="M45" s="2">
         <v>0</v>
       </c>
-      <c r="N45" s="5">
-        <v>1</v>
-      </c>
-      <c r="O45" s="14">
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="14">
         <v>44</v>
       </c>
-      <c r="P45" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(44,'\','Вега-сервис','IvanovaNV@votges.rushydro.ru',0,1,0,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(44,'\','"Вега-сервис"','IvanovaNV@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="14"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="5"/>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="14"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P47" s="5"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="14"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="5"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="14"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="5"/>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="14"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="5"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="14"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="5"/>
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="14"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" s="5"/>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="14"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" s="5"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="14"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" s="5"/>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="14"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" s="5"/>
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="14"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="5"/>
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="14"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" s="5"/>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="14"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="5"/>
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="14"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" s="5"/>
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="14"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="5"/>
+      <c r="Q60" s="14"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="14"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" s="5"/>
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="14"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" s="5"/>
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="14"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" s="5"/>
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="14"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" s="5"/>
+      <c r="Q64" s="14"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="14"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" s="5"/>
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="14"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" s="5"/>
+      <c r="Q66" s="14"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="14"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" s="5"/>
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="14"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" s="5"/>
+      <c r="Q68" s="14"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="14"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" s="5"/>
+      <c r="Q69" s="14"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="14"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" s="5"/>
+      <c r="Q70" s="14"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="14"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" s="5"/>
+      <c r="Q71" s="14"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="14"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" s="5"/>
+      <c r="Q72" s="14"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="14"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" s="5"/>
+      <c r="Q73" s="14"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="14"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" s="5"/>
+      <c r="Q74" s="14"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="14"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" s="5"/>
+      <c r="Q75" s="14"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="14"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" s="5"/>
+      <c r="Q76" s="14"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="14"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" s="5"/>
+      <c r="Q77" s="14"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="14"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" s="5"/>
+      <c r="Q78" s="14"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="14"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79" s="5"/>
+      <c r="Q79" s="14"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="14"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="5"/>
+      <c r="Q80" s="14"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="14"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81" s="5"/>
+      <c r="Q81" s="14"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="14"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82" s="5"/>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="14"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83" s="5"/>
+      <c r="Q83" s="14"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="14"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84" s="5"/>
+      <c r="Q84" s="14"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="14"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" s="5"/>
+      <c r="Q85" s="14"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="14"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86" s="5"/>
+      <c r="Q86" s="14"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="14"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87" s="5"/>
+      <c r="Q87" s="14"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="14"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88" s="5"/>
+      <c r="Q88" s="14"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="14"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89" s="5"/>
+      <c r="Q89" s="14"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="14"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90" s="5"/>
+      <c r="Q90" s="14"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="14"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91" s="5"/>
+      <c r="Q91" s="14"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="14"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92" s="5"/>
+      <c r="Q92" s="14"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="14"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="5"/>
+      <c r="Q93" s="14"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="14"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94" s="5"/>
+      <c r="Q94" s="14"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="14"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" s="5"/>
+      <c r="Q95" s="14"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="14"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96" s="5"/>
+      <c r="Q96" s="14"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="14"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97" s="5"/>
+      <c r="Q97" s="14"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="14"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" s="5"/>
+      <c r="Q98" s="14"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="14"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" s="5"/>
+      <c r="Q99" s="14"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="14"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="5"/>
+      <c r="Q100" s="14"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="14"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="5"/>
+      <c r="Q101" s="14"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4012,14 +4366,19 @@
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="17"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/docs/users.xlsx
+++ b/docs/users.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
   <si>
     <t>Имя</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t>IvanovAV@votges.rushydro.ru</t>
+  </si>
+  <si>
+    <t>Глушкова М.Б.</t>
+  </si>
+  <si>
+    <t>GlushkovaMB</t>
+  </si>
+  <si>
+    <t>Деев И.А.</t>
+  </si>
+  <si>
+    <t>DeevIA</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1184,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:Q102" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A1:Q102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:Q104" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:Q104"/>
   <tableColumns count="17">
     <tableColumn id="1" name="Имя" dataDxfId="16"/>
     <tableColumn id="2" name="Домен" dataDxfId="15"/>
@@ -1487,13 +1499,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R5" sqref="R5:R45"/>
+      <selection pane="bottomRight" activeCell="R47" sqref="R2:R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R45" si="1">CONCATENATE($R$1,"(",Q3,",'",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3,",",P3,")")</f>
+        <f t="shared" ref="R3:R47" si="1">CONCATENATE($R$1,"(",Q3,",'",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3,",",P3,")")</f>
         <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(2,'CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0,0,0)</v>
       </c>
     </row>
@@ -3713,7 +3725,7 @@
         <v>83</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" ref="D39" si="7">CONCATENATE(C39,"@votges.rushydro.ru")</f>
+        <f t="shared" ref="D39:D41" si="7">CONCATENATE(C39,"@votges.rushydro.ru")</f>
         <v>ShupletsovKG@votges.rushydro.ru</v>
       </c>
       <c r="E39" s="2">
@@ -3761,13 +3773,18 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>88</v>
+      <c r="A40" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>GlushkovaMB@votges.rushydro.ru</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3776,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="14">
         <v>0</v>
@@ -3785,10 +3802,10 @@
         <v>1</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="2">
         <v>0</v>
@@ -3809,18 +3826,23 @@
         <v>39</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(39,'\','"Турборемонт"','KurbatovVP@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+        <f t="shared" ref="R40:R41" si="8">CONCATENATE($R$1,"(",Q40,",'",B40,"\",C40,"','",A40,"','",D40,"',",E40,",",F40,",",G40,",",H40,",",I40,",",J40,",",K40,",",L40,",",M40,",",N40,",",O40,",",P40,")")</f>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(39,'CORP\GlushkovaMB','Глушкова М.Б.','GlushkovaMB@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>89</v>
+      <c r="A41" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>DeevIA@votges.rushydro.ru</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3829,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="14">
         <v>0</v>
@@ -3838,10 +3860,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -3862,18 +3884,18 @@
         <v>40</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(40,'\','"Электроремонт"','ToschevikovVM@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+        <f t="shared" si="8"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(40,'CORP\DeevIA','Деев И.А.','DeevIA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -3916,16 +3938,18 @@
       </c>
       <c r="R42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(41,'\','"Гидроремонт"','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(41,'\','"Турборемонт"','KurbatovVP@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="E43" s="2">
         <v>0</v>
       </c>
@@ -3967,16 +3991,18 @@
       </c>
       <c r="R43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(42,'\','"Шлюз"','',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(42,'\','"Электроремонт"','ToschevikovVM@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="E44" s="2">
         <v>0</v>
       </c>
@@ -4018,16 +4044,16 @@
       </c>
       <c r="R44" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(43,'\','"Водоканал"','',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(43,'\','"Гидроремонт"','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>0</v>
       </c>
@@ -4069,18 +4095,110 @@
       </c>
       <c r="R45" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(44,'\','"Вега-сервис"','IvanovaNV@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(44,'\','"Шлюз"','',0,1,0,0,1,0,0,0,0,0,0,1)</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="14"/>
+      <c r="A46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>45</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(45,'\','"Водоканал"','',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="14"/>
+      <c r="A47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="14">
+        <v>46</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(46,'\','"Вега-сервис"','IvanovaNV@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -4353,23 +4471,33 @@
       <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="17"/>
+      <c r="A102" s="4"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="14"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="14"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs/users.xlsx
+++ b/docs/users.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t>Имя</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Оповещать о всех событиях согласованных заявок</t>
   </si>
   <si>
-    <t>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values</t>
-  </si>
-  <si>
     <t>"Турборемонт"</t>
   </si>
   <si>
@@ -349,6 +346,12 @@
   </si>
   <si>
     <t>DeevIA</t>
+  </si>
+  <si>
+    <t>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values</t>
+  </si>
+  <si>
+    <t>Может редактировать заявки</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,39 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1184,26 +1219,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:Q104" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="A1:Q104"/>
-  <tableColumns count="17">
-    <tableColumn id="1" name="Имя" dataDxfId="16"/>
-    <tableColumn id="2" name="Домен" dataDxfId="15"/>
-    <tableColumn id="3" name="Логин" dataDxfId="14"/>
-    <tableColumn id="4" name="Почта" dataDxfId="13"/>
-    <tableColumn id="5" name="Оповещать о всех заявках" dataDxfId="12"/>
-    <tableColumn id="6" name="Оповещать о согласованных с ним заявках" dataDxfId="11"/>
-    <tableColumn id="7" name="Оповещать о созданных им заявках" dataDxfId="10"/>
-    <tableColumn id="17" name="Оповещать о всех новых заявках" dataDxfId="9"/>
-    <tableColumn id="16" name="Оповещать о всех событиях согласованных заявок" dataDxfId="8"/>
-    <tableColumn id="8" name="Может создавать заявки" dataDxfId="7"/>
-    <tableColumn id="9" name="Может создавать аварийные заявки" dataDxfId="6"/>
-    <tableColumn id="10" name="Может рассматривать заявки" dataDxfId="5"/>
-    <tableColumn id="11" name="Может открывать закрывать заявки" dataDxfId="4"/>
-    <tableColumn id="12" name="Может редактировать оборудование" dataDxfId="3"/>
-    <tableColumn id="13" name="Может редактировать пользователей" dataDxfId="2"/>
-    <tableColumn id="14" name="Может согласовывать заявки" dataDxfId="1"/>
-    <tableColumn id="15" name="Номер" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R104" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:R104"/>
+  <tableColumns count="18">
+    <tableColumn id="1" name="Имя" dataDxfId="17"/>
+    <tableColumn id="2" name="Домен" dataDxfId="16"/>
+    <tableColumn id="3" name="Логин" dataDxfId="15"/>
+    <tableColumn id="4" name="Почта" dataDxfId="14"/>
+    <tableColumn id="5" name="Оповещать о всех заявках" dataDxfId="13"/>
+    <tableColumn id="6" name="Оповещать о согласованных с ним заявках" dataDxfId="12"/>
+    <tableColumn id="7" name="Оповещать о созданных им заявках" dataDxfId="11"/>
+    <tableColumn id="17" name="Оповещать о всех новых заявках" dataDxfId="10"/>
+    <tableColumn id="16" name="Оповещать о всех событиях согласованных заявок" dataDxfId="9"/>
+    <tableColumn id="8" name="Может создавать заявки" dataDxfId="8"/>
+    <tableColumn id="9" name="Может создавать аварийные заявки" dataDxfId="7"/>
+    <tableColumn id="10" name="Может рассматривать заявки" dataDxfId="6"/>
+    <tableColumn id="11" name="Может открывать закрывать заявки" dataDxfId="5"/>
+    <tableColumn id="12" name="Может редактировать оборудование" dataDxfId="4"/>
+    <tableColumn id="13" name="Может редактировать пользователей" dataDxfId="3"/>
+    <tableColumn id="18" name="Может редактировать заявки" dataDxfId="0"/>
+    <tableColumn id="14" name="Может согласовывать заявки" dataDxfId="2"/>
+    <tableColumn id="15" name="Номер" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1499,13 +1535,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R47" sqref="R2:R47"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2:S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,11 +1550,11 @@
     <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16" width="10.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="10.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="107.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="162.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="162.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1565,16 +1601,19 @@
         <v>17</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>93</v>
       </c>
@@ -1619,15 +1658,18 @@
       <c r="P2" s="15">
         <v>0</v>
       </c>
-      <c r="Q2" s="16">
-        <v>1</v>
-      </c>
-      <c r="R2" t="str">
-        <f>CONCATENATE($R$1,"(",Q2,",'",B2,"\",C2,"','",A2,"','",D2,"',",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,",",O2,",",P2,")")</f>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(1,'\auto','Автоматически','',0,0,0,0,0,0,0,0,0,0,0,0)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="15">
+        <v>0</v>
+      </c>
+      <c r="R2" s="16">
+        <v>1</v>
+      </c>
+      <c r="S2" t="str">
+        <f>CONCATENATE($S$1,"(",R2,",'",B2,"\",C2,"','",A2,"','",D2,"',",E2,",",F2,",",G2,",",H2,",",I2,",",J2,",",K2,",",L2,",",M2,",",N2,",",O2,",",P2,",",Q2,")")</f>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(1,'\auto','Автоматически','',0,0,0,0,0,0,0,0,0,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>86</v>
       </c>
@@ -1677,15 +1719,18 @@
       <c r="P3" s="2">
         <v>0</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
         <v>2</v>
       </c>
-      <c r="R3" t="str">
-        <f t="shared" ref="R3:R47" si="1">CONCATENATE($R$1,"(",Q3,",'",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3,",",P3,")")</f>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(2,'CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0,0,0)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S47" si="1">CONCATENATE($S$1,"(",R3,",'",B3,"\",C3,"','",A3,"','",D3,"',",E3,",",F3,",",G3,",",H3,",",I3,",",J3,",",K3,",",L3,",",M3,",",N3,",",O3,",",P3,",",Q3,")")</f>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(2,'CORP\gschu','ГЩУ ВотГЭС','gschu@votges.rushydro.ru',1,0,0,0,0,0,0,0,0,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>84</v>
       </c>
@@ -1735,15 +1780,18 @@
       <c r="P4" s="2">
         <v>1</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="16">
         <v>3</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(3,'CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,0,1,1,1,1,1,1,1,1)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(3,'CORP\ChekunovaMV','Чекунова М.В.','ChekunovaMV@votges.rushydro.ru',1,1,1,0,1,1,1,1,1,1,1,1,1)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
@@ -1793,15 +1841,18 @@
       <c r="P5" s="5">
         <v>0</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
         <v>4</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(4,'CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,0,0,1,0,0,0,0)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(4,'CORP\ByakovAG','Бяков А.Г.','ByakovAG@votges.rushydro.ru',0,0,0,0,0,0,0,1,0,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1851,15 +1902,18 @@
       <c r="P6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="16">
         <v>5</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(5,'CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,1,0,0,1,1,1,0,0,0,0)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(5,'CORP\DeevAP','Деев А.П.','DeevAP@votges.rushydro.ru',0,0,1,0,0,1,1,1,0,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1907,17 +1961,20 @@
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="14">
         <v>6</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(6,'CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,1,0,1,1,1,1,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(6,'CORP\AlekseevVG','Алексеев В.Г.','AlekseevVG@votges.rushydro.ru',0,1,1,0,1,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1965,17 +2022,20 @@
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="16">
         <v>7</v>
       </c>
-      <c r="R8" t="str">
+      <c r="S8" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(7,'CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,1,0,1,1,1,1,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(7,'CORP\VotintsevAN','Вотинцев А.Н.','VotintsevAN@votges.rushydro.ru',0,1,1,0,1,1,1,1,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -2025,15 +2085,18 @@
       <c r="P9" s="5">
         <v>1</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="14">
         <v>8</v>
       </c>
-      <c r="R9" t="str">
+      <c r="S9" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(8,'CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,0,1,1,1,1,1,1,1,1)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(8,'CORP\BalabanovVV','Балабанов В.В.','BalabanovVV@votges.rushydro.ru',1,1,1,0,1,1,1,1,1,1,1,1,1)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -2081,17 +2144,20 @@
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="16">
         <v>9</v>
       </c>
-      <c r="R10" t="str">
+      <c r="S10" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(9,'CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,1)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(9,'CORP\TsirlinSL','Цирлин С.Л.','TsirlinSL@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -2141,15 +2207,18 @@
       <c r="P11" s="5">
         <v>0</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
         <v>10</v>
       </c>
-      <c r="R11" t="str">
+      <c r="S11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(10,'CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(10,'CORP\AlekseevVV','Алексеев В.В.','AlekseevVV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -2199,15 +2268,18 @@
       <c r="P12" s="5">
         <v>0</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
         <v>11</v>
       </c>
-      <c r="R12" t="str">
+      <c r="S12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(11,'CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(11,'CORP\LukinSV','Лукин С.В.','LukinSV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -2257,15 +2329,18 @@
       <c r="P13" s="5">
         <v>0</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
         <v>12</v>
       </c>
-      <c r="R13" t="str">
+      <c r="S13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(12,'CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(12,'CORP\BorisevichVI','Борисевич В.И.','BorisevichVI@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2315,15 +2390,18 @@
       <c r="P14" s="5">
         <v>0</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
         <v>13</v>
       </c>
-      <c r="R14" t="str">
+      <c r="S14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(13,'CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(13,'CORP\SalnikovSM','Сальников С.М.','SalnikovSM@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -2373,15 +2451,18 @@
       <c r="P15" s="5">
         <v>0</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
         <v>14</v>
       </c>
-      <c r="R15" t="str">
+      <c r="S15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(14,'CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(14,'CORP\ChirkaRI','Чирка Р.И.','ChirkaRI@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -2392,7 +2473,7 @@
         <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -2430,15 +2511,18 @@
       <c r="P16" s="5">
         <v>0</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
         <v>15</v>
       </c>
-      <c r="R16" t="str">
+      <c r="S16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(15,'CORP\IvanovAVa','Иванов А.В.','IvanovAV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(15,'CORP\IvanovAVa','Иванов А.В.','IvanovAV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -2488,15 +2572,18 @@
       <c r="P17" s="5">
         <v>0</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14">
         <v>16</v>
       </c>
-      <c r="R17" t="str">
+      <c r="S17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(16,'CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(16,'CORP\PolyaninAV','Полянин А.В.','PolyaninAV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -2546,15 +2633,18 @@
       <c r="P18" s="5">
         <v>0</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
         <v>17</v>
       </c>
-      <c r="R18" t="str">
+      <c r="S18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(17,'CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(17,'CORP\RusskihAI','Русских А.И.','RusskihAI@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -2604,15 +2694,18 @@
       <c r="P19" s="5">
         <v>0</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
         <v>18</v>
       </c>
-      <c r="R19" t="str">
+      <c r="S19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(18,'CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(18,'CORP\GunchenkoAA','Гунченко А.А.','GunchenkoAA@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
@@ -2662,15 +2755,18 @@
       <c r="P20" s="5">
         <v>0</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
         <v>19</v>
       </c>
-      <c r="R20" t="str">
+      <c r="S20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(19,'CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(19,'CORP\MihaylovVV','Михайлов В.В.','MihaylovVV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
@@ -2720,15 +2816,18 @@
       <c r="P21" s="5">
         <v>0</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="14">
         <v>20</v>
       </c>
-      <c r="R21" t="str">
+      <c r="S21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(20,'CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(20,'CORP\BurnyshevKN','Бурнышев К.Н.','BurnyshevKN@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
@@ -2778,15 +2877,18 @@
       <c r="P22" s="5">
         <v>0</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="16">
         <v>21</v>
       </c>
-      <c r="R22" t="str">
+      <c r="S22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(21,'CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(21,'CORP\TrefilovAV','Трефилов А.В.','TrefilovAV@votges.rushydro.ru',0,1,1,0,1,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -2834,17 +2936,20 @@
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="14">
         <v>22</v>
       </c>
-      <c r="R23" t="str">
+      <c r="S23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(22,'CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(22,'CORP\KetovaLZ','Кетова Л.З.','KetovaLZ@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,1,0)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
@@ -2894,15 +2999,18 @@
       <c r="P24" s="5">
         <v>0</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16">
         <v>23</v>
       </c>
-      <c r="R24" t="str">
+      <c r="S24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(23,'CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(23,'CORP\FisenkoSV','Фисенко С.В.','FisenkoSV@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
@@ -2952,15 +3060,18 @@
       <c r="P25" s="5">
         <v>0</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="14">
         <v>24</v>
       </c>
-      <c r="R25" t="str">
+      <c r="S25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(24,'CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(24,'CORP\KirienkoDM','Кириенко Д.М.','KirienkoDM@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -3010,15 +3121,18 @@
       <c r="P26" s="5">
         <v>0</v>
       </c>
-      <c r="Q26" s="16">
+      <c r="Q26" s="5">
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
         <v>25</v>
       </c>
-      <c r="R26" t="str">
+      <c r="S26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(25,'CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(25,'CORP\SentyabovAA','Сентябов А.А.','SentyabovAA@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
@@ -3068,15 +3182,18 @@
       <c r="P27" s="5">
         <v>0</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="14">
         <v>26</v>
       </c>
-      <c r="R27" t="str">
+      <c r="S27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(26,'CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(26,'CORP\SalnikovES','Сальников Е.С.','SalnikovES@votges.rushydro.ru',0,0,1,0,0,1,1,1,1,0,0,0,0)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -3124,17 +3241,20 @@
         <v>0</v>
       </c>
       <c r="P28" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>1</v>
+      </c>
+      <c r="R28" s="16">
         <v>27</v>
       </c>
-      <c r="R28" t="str">
+      <c r="S28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(27,'CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(27,'CORP\KocheevNN','Кочеев Н.Н.','KocheevNN@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -3182,17 +3302,20 @@
         <v>0</v>
       </c>
       <c r="P29" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>1</v>
+      </c>
+      <c r="R29" s="14">
         <v>28</v>
       </c>
-      <c r="R29" t="str">
+      <c r="S29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(28,'CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(28,'CORP\LazarevAI','Лазарев А.И.','LazarevAI@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -3240,17 +3363,20 @@
         <v>0</v>
       </c>
       <c r="P30" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>1</v>
+      </c>
+      <c r="R30" s="16">
         <v>29</v>
       </c>
-      <c r="R30" t="str">
+      <c r="S30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(29,'CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(29,'CORP\KuznetsovAI','Кузнецов А.И.','KuznetsovAI@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -3298,17 +3424,20 @@
         <v>0</v>
       </c>
       <c r="P31" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>1</v>
+      </c>
+      <c r="R31" s="14">
         <v>30</v>
       </c>
-      <c r="R31" t="str">
+      <c r="S31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(30,'CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(30,'CORP\ZykovSL','Зыков С.Л.','ZykovSL@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -3356,17 +3485,20 @@
         <v>0</v>
       </c>
       <c r="P32" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1</v>
+      </c>
+      <c r="R32" s="16">
         <v>31</v>
       </c>
-      <c r="R32" t="str">
+      <c r="S32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(31,'CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(31,'CORP\NikonovAA','Никонов А.А.','NikonovAA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -3414,17 +3546,20 @@
         <v>0</v>
       </c>
       <c r="P33" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>1</v>
+      </c>
+      <c r="R33" s="14">
         <v>32</v>
       </c>
-      <c r="R33" t="str">
+      <c r="S33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(32,'CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(32,'CORP\ByakovaTA','Бякова Т.А.','ByakovaTA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -3472,17 +3607,20 @@
         <v>0</v>
       </c>
       <c r="P34" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>1</v>
+      </c>
+      <c r="R34" s="16">
         <v>33</v>
       </c>
-      <c r="R34" t="str">
+      <c r="S34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(33,'CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(33,'CORP\ChernyshevAA','Чернышов А.Я.','ChernyshevAA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -3530,17 +3668,20 @@
         <v>0</v>
       </c>
       <c r="P35" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>1</v>
+      </c>
+      <c r="R35" s="14">
         <v>34</v>
       </c>
-      <c r="R35" t="str">
+      <c r="S35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(34,'CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(34,'CORP\SidorovVL','Сидоров В.Л.','SidorovVL@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>74</v>
       </c>
@@ -3588,17 +3729,20 @@
         <v>0</v>
       </c>
       <c r="P36" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>1</v>
+      </c>
+      <c r="R36" s="16">
         <v>35</v>
       </c>
-      <c r="R36" t="str">
+      <c r="S36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(35,'CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(35,'CORP\ShamsuarovRA','Шамсуаров Р.А.','ShamsuarovRA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>76</v>
       </c>
@@ -3646,17 +3790,20 @@
         <v>0</v>
       </c>
       <c r="P37" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>1</v>
+      </c>
+      <c r="R37" s="14">
         <v>36</v>
       </c>
-      <c r="R37" t="str">
+      <c r="S37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(36,'CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(36,'CORP\VasilkovVS','Васильков В.С.','VasilkovVS@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>80</v>
       </c>
@@ -3704,17 +3851,20 @@
         <v>0</v>
       </c>
       <c r="P38" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>1</v>
+      </c>
+      <c r="R38" s="16">
         <v>37</v>
       </c>
-      <c r="R38" t="str">
+      <c r="S38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(37,'CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(37,'CORP\BahinVV','Бахин В.В.','BahinVV@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>82</v>
       </c>
@@ -3762,25 +3912,28 @@
         <v>0</v>
       </c>
       <c r="P39" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>1</v>
+      </c>
+      <c r="R39" s="14">
         <v>38</v>
       </c>
-      <c r="R39" t="str">
+      <c r="S39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(38,'CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(38,'CORP\ShupletsovKG','Шуплецов К.Г.','ShupletsovKG@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3820,25 +3973,28 @@
         <v>0</v>
       </c>
       <c r="P40" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>1</v>
+      </c>
+      <c r="R40" s="16">
         <v>39</v>
       </c>
-      <c r="R40" t="str">
-        <f t="shared" ref="R40:R41" si="8">CONCATENATE($R$1,"(",Q40,",'",B40,"\",C40,"','",A40,"','",D40,"',",E40,",",F40,",",G40,",",H40,",",I40,",",J40,",",K40,",",L40,",",M40,",",N40,",",O40,",",P40,")")</f>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(39,'CORP\GlushkovaMB','Глушкова М.Б.','GlushkovaMB@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(39,'CORP\GlushkovaMB','Глушкова М.Б.','GlushkovaMB@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2" t="str">
         <f t="shared" si="7"/>
@@ -3878,19 +4034,22 @@
         <v>0</v>
       </c>
       <c r="P41" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>1</v>
+      </c>
+      <c r="R41" s="14">
         <v>40</v>
       </c>
-      <c r="R41" t="str">
-        <f t="shared" si="8"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(40,'CORP\DeevIA','Деев И.А.','DeevIA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(40,'CORP\DeevIA','Деев И.А.','DeevIA@votges.rushydro.ru',0,1,1,0,1,1,1,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3931,19 +4090,22 @@
         <v>0</v>
       </c>
       <c r="P42" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>1</v>
+      </c>
+      <c r="R42" s="16">
         <v>41</v>
       </c>
-      <c r="R42" t="str">
+      <c r="S42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(41,'\','"Турборемонт"','KurbatovVP@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(41,'\','"Турборемонт"','KurbatovVP@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3984,19 +4146,22 @@
         <v>0</v>
       </c>
       <c r="P43" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>1</v>
+      </c>
+      <c r="R43" s="14">
         <v>42</v>
       </c>
-      <c r="R43" t="str">
+      <c r="S43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(42,'\','"Электроремонт"','ToschevikovVM@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(42,'\','"Электроремонт"','ToschevikovVM@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4037,19 +4202,22 @@
         <v>0</v>
       </c>
       <c r="P44" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>1</v>
+      </c>
+      <c r="R44" s="16">
         <v>43</v>
       </c>
-      <c r="R44" t="str">
+      <c r="S44" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(43,'\','"Гидроремонт"','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(43,'\','"Гидроремонт"','KuzminyhIB@hvkk.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4088,19 +4256,22 @@
         <v>0</v>
       </c>
       <c r="P45" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>1</v>
+      </c>
+      <c r="R45" s="14">
         <v>44</v>
       </c>
-      <c r="R45" t="str">
+      <c r="S45" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(44,'\','"Шлюз"','',0,1,0,0,1,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(44,'\','"Шлюз"','',0,1,0,0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4139,19 +4310,22 @@
         <v>0</v>
       </c>
       <c r="P46" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>1</v>
+      </c>
+      <c r="R46" s="16">
         <v>45</v>
       </c>
-      <c r="R46" t="str">
+      <c r="S46" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(45,'\','"Водоканал"','',0,1,0,0,1,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(45,'\','"Водоканал"','',0,1,0,0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>91</v>
@@ -4190,297 +4364,356 @@
         <v>0</v>
       </c>
       <c r="P47" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>1</v>
+      </c>
+      <c r="R47" s="14">
         <v>46</v>
       </c>
-      <c r="R47" t="str">
+      <c r="S47" t="str">
         <f t="shared" si="1"/>
-        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowAgreeOrders) values(46,'\','"Вега-сервис"','IvanovaNV@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,1)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>insert into users (userID, name, fullName, mail, sendAllMail, sendAgreeMail, sendCreateMail, sendAllCreateMail,sendAllAgreeMail, allowCreateOrder, allowCreateCrashOrder, allowReviewOrder, allowChangeOrder, allowEditTree, allowEditUsers,allowEditOrders,allowAgreeOrders) values(46,'\','"Вега-сервис"','IvanovaNV@votges.rushydro.ru',0,1,0,0,1,0,0,0,0,0,0,0,1)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="14"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q48" s="5"/>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="14"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q49" s="5"/>
+      <c r="R49" s="14"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="14"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q50" s="5"/>
+      <c r="R50" s="14"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="14"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q51" s="5"/>
+      <c r="R51" s="14"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q52" s="5"/>
+      <c r="R52" s="14"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="14"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q53" s="5"/>
+      <c r="R53" s="14"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="14"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q54" s="5"/>
+      <c r="R54" s="14"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="14"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q55" s="5"/>
+      <c r="R55" s="14"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="14"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q56" s="5"/>
+      <c r="R56" s="14"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="14"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q57" s="5"/>
+      <c r="R57" s="14"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="14"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q58" s="5"/>
+      <c r="R58" s="14"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="14"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q59" s="5"/>
+      <c r="R59" s="14"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="14"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q60" s="5"/>
+      <c r="R60" s="14"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="14"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q61" s="5"/>
+      <c r="R61" s="14"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="14"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q62" s="5"/>
+      <c r="R62" s="14"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="14"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q63" s="5"/>
+      <c r="R63" s="14"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="14"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q64" s="5"/>
+      <c r="R64" s="14"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="P65" s="5"/>
-      <c r="Q65" s="14"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q65" s="5"/>
+      <c r="R65" s="14"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="P66" s="5"/>
-      <c r="Q66" s="14"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q66" s="5"/>
+      <c r="R66" s="14"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="P67" s="5"/>
-      <c r="Q67" s="14"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q67" s="5"/>
+      <c r="R67" s="14"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="P68" s="5"/>
-      <c r="Q68" s="14"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q68" s="5"/>
+      <c r="R68" s="14"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="P69" s="5"/>
-      <c r="Q69" s="14"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q69" s="5"/>
+      <c r="R69" s="14"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="P70" s="5"/>
-      <c r="Q70" s="14"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q70" s="5"/>
+      <c r="R70" s="14"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="P71" s="5"/>
-      <c r="Q71" s="14"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q71" s="5"/>
+      <c r="R71" s="14"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="P72" s="5"/>
-      <c r="Q72" s="14"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q72" s="5"/>
+      <c r="R72" s="14"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="P73" s="5"/>
-      <c r="Q73" s="14"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q73" s="5"/>
+      <c r="R73" s="14"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="14"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q74" s="5"/>
+      <c r="R74" s="14"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="14"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q75" s="5"/>
+      <c r="R75" s="14"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="P76" s="5"/>
-      <c r="Q76" s="14"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q76" s="5"/>
+      <c r="R76" s="14"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="P77" s="5"/>
-      <c r="Q77" s="14"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q77" s="5"/>
+      <c r="R77" s="14"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="P78" s="5"/>
-      <c r="Q78" s="14"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q78" s="5"/>
+      <c r="R78" s="14"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="P79" s="5"/>
-      <c r="Q79" s="14"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q79" s="5"/>
+      <c r="R79" s="14"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="P80" s="5"/>
-      <c r="Q80" s="14"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q80" s="5"/>
+      <c r="R80" s="14"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="P81" s="5"/>
-      <c r="Q81" s="14"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q81" s="5"/>
+      <c r="R81" s="14"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="P82" s="5"/>
-      <c r="Q82" s="14"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q82" s="5"/>
+      <c r="R82" s="14"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="P83" s="5"/>
-      <c r="Q83" s="14"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q83" s="5"/>
+      <c r="R83" s="14"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="P84" s="5"/>
-      <c r="Q84" s="14"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q84" s="5"/>
+      <c r="R84" s="14"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="P85" s="5"/>
-      <c r="Q85" s="14"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q85" s="5"/>
+      <c r="R85" s="14"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="P86" s="5"/>
-      <c r="Q86" s="14"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q86" s="5"/>
+      <c r="R86" s="14"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="P87" s="5"/>
-      <c r="Q87" s="14"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q87" s="5"/>
+      <c r="R87" s="14"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="P88" s="5"/>
-      <c r="Q88" s="14"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q88" s="5"/>
+      <c r="R88" s="14"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="P89" s="5"/>
-      <c r="Q89" s="14"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q89" s="5"/>
+      <c r="R89" s="14"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="P90" s="5"/>
-      <c r="Q90" s="14"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q90" s="5"/>
+      <c r="R90" s="14"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="P91" s="5"/>
-      <c r="Q91" s="14"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q91" s="5"/>
+      <c r="R91" s="14"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="P92" s="5"/>
-      <c r="Q92" s="14"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q92" s="5"/>
+      <c r="R92" s="14"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="P93" s="5"/>
-      <c r="Q93" s="14"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q93" s="5"/>
+      <c r="R93" s="14"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="P94" s="5"/>
-      <c r="Q94" s="14"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q94" s="5"/>
+      <c r="R94" s="14"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="P95" s="5"/>
-      <c r="Q95" s="14"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q95" s="5"/>
+      <c r="R95" s="14"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="P96" s="5"/>
-      <c r="Q96" s="14"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q96" s="5"/>
+      <c r="R96" s="14"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="P97" s="5"/>
-      <c r="Q97" s="14"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q97" s="5"/>
+      <c r="R97" s="14"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="P98" s="5"/>
-      <c r="Q98" s="14"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q98" s="5"/>
+      <c r="R98" s="14"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="P99" s="5"/>
-      <c r="Q99" s="14"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q99" s="5"/>
+      <c r="R99" s="14"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="P100" s="5"/>
-      <c r="Q100" s="14"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q100" s="5"/>
+      <c r="R100" s="14"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="P101" s="5"/>
-      <c r="Q101" s="14"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q101" s="5"/>
+      <c r="R101" s="14"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="P102" s="5"/>
-      <c r="Q102" s="14"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q102" s="5"/>
+      <c r="R102" s="14"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="P103" s="5"/>
-      <c r="Q103" s="14"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q103" s="5"/>
+      <c r="R103" s="14"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -4497,7 +4730,8 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
       <c r="P104" s="12"/>
-      <c r="Q104" s="17"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
